--- a/Documents/Data/Society & Social Science/category_Society&Social Science.xlsx
+++ b/Documents/Data/Society & Social Science/category_Society&Social Science.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="17830"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="53">
   <si>
     <t>Publisher</t>
   </si>
@@ -90,26 +90,103 @@
     <t>Psychiatrist Viktor Frankl's memoir has riveted generations of readers with its descriptions of life in Nazi death camps and its lessons for spiritual survival. Between 1942 and 1945 Frankl labored in four different camps, including Auschwitz, while his parents, brother, and pregnant wife perished. Based on his own experience and the experiences of others he treated later in his practice, Frankl argues that we cannot avoid suffering but we can choose how to cope with it, find meaning in it, and move forward with renewed purpose. Frankl's theory-known as logotherapy, from the Greek word logos (-meaning-)-holds that our primary drive in life is not pleasure, as Freud maintained, but the discovery and pursuit of what we personally find meaningful.</t>
   </si>
   <si>
-    <t>Running Press</t>
-  </si>
-  <si>
-    <t>Philadelphia, United States</t>
-  </si>
-  <si>
-    <t>Here is the first officially licensed "Harry Potter Collectible Quidditch Set" that includes: 1 Quaffle, 2 Bludgers, 1 non-removable Snitch, and 1 16x24" collectible poster all showcased in a decorative Quidditch trunk. Includes lock and key for trunk.</t>
-  </si>
-  <si>
     <t xml:space="preserve">*A HILARIOUS, BRAND NEW BOOK IN THE PHENOMENAL LADYBIRDS FOR GROWN UPS SERIES, FOR AUTUMN 2016* The Ladybird Book of Red Tape - a nugget of wisdom from bestselling authors Jason Hazeley and Joel Morris. This delightful book is the latest in the series of Ladybird books which have been specially planned to help grown-ups with the world about them. The large clear script, the careful choice of words, the frequent repetition and the thoughtful matching of text with pictures all enable grown-ups to think they have taught themselves to cope. </t>
   </si>
   <si>
     <t>Quiet by Susan Cain will change how you think about introverts forever A Sunday Times and New York Times Bestseller Our lives are driven by a fact that most of us can't name and don't understand. It defines who our friends and lovers are, which careers we choose, and whether we blush when we're embarrassed. That fact is whether we're an introvert or an extrovert. The introvert/extrovert divide is the most fundamental dimension of personality. And at least a third of us are on the introverted side.</t>
+  </si>
+  <si>
+    <t>ISBN13</t>
+  </si>
+  <si>
+    <t>Cost</t>
+  </si>
+  <si>
+    <t>STT</t>
+  </si>
+  <si>
+    <t>Title</t>
+  </si>
+  <si>
+    <t>Author Name</t>
+  </si>
+  <si>
+    <t>Thinking, Fast and Slow</t>
+  </si>
+  <si>
+    <t>Daniel Kahneman</t>
+  </si>
+  <si>
+    <t>Sapiens : A Brief History of Humankind</t>
+  </si>
+  <si>
+    <t>Yuval Noah Harari</t>
+  </si>
+  <si>
+    <t>How to Win Friends and Influence People</t>
+  </si>
+  <si>
+    <t>Dale Carnegie</t>
+  </si>
+  <si>
+    <t>Atlas Obscura</t>
+  </si>
+  <si>
+    <t>Joshua Foer</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Gurkha : Better to Die Than Live a Coward: My Life in the Gurkhas
+</t>
+  </si>
+  <si>
+    <t>Colour Sergeant Kailash Limbu</t>
+  </si>
+  <si>
+    <t xml:space="preserve">World Mythology in Bite-Sized Chunks
+</t>
+  </si>
+  <si>
+    <t>Mark Daniels</t>
+  </si>
+  <si>
+    <t>Man's Search for Meaning</t>
+  </si>
+  <si>
+    <t>Viktor E.Frankl</t>
+  </si>
+  <si>
+    <t>The Ladybird Book of Red Tape</t>
+  </si>
+  <si>
+    <t>Jashon Hazeley</t>
+  </si>
+  <si>
+    <t>Quiet : The Power of Introverts in a World That Can't Stop Talking</t>
+  </si>
+  <si>
+    <t>Susan Cain</t>
+  </si>
+  <si>
+    <t>I Know Why the Caged Bird Sings</t>
+  </si>
+  <si>
+    <t>Maya Angelou</t>
+  </si>
+  <si>
+    <t>Random House USA Inc</t>
+  </si>
+  <si>
+    <t>Sent by their mother to live with their devout, self-sufficient grandmother in a small Southern town, Maya and her brother, Bailey, endure the ache of abandonment and the prejudice of the local `powhitetrash.` At eight years old and back at her mother's side in St. Louis, Maya is attacked by a man many times her age-and has to live with the consequences for a lifetime. Years later, in San Francisco, Maya learns about love for herself and the kindness of others, her own strong spirit, and the ideas of great authors (`I met and fell in love with William Shakespeare`) will allow her to be free instead of imprisoned. Poetic and powerful, I Know Why the Caged Bird Sings is a modern American classic that will touch hearts and change minds for as long as people read.</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <numFmts count="1">
+    <numFmt numFmtId="8" formatCode="&quot;$&quot;#,##0.00_);[Red]\(&quot;$&quot;#,##0.00\)"/>
+  </numFmts>
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -118,10 +195,17 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF333333"/>
-      <name val="Arial"/>
+      <name val="Calibri"/>
       <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
@@ -144,14 +228,23 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="15" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="1" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="8" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="15" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="15" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="15" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -161,6 +254,9 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -209,7 +305,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -242,9 +338,26 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -277,6 +390,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -453,206 +583,377 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E11"/>
+  <dimension ref="A1:J11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C17" sqref="C17"/>
+      <selection activeCell="J12" sqref="J12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="36.125" customWidth="1"/>
-    <col min="2" max="2" width="16.5" customWidth="1"/>
-    <col min="3" max="3" width="30.75" customWidth="1"/>
-    <col min="4" max="4" width="20.875" customWidth="1"/>
-    <col min="5" max="5" width="32.75" customWidth="1"/>
+    <col min="1" max="1" width="9.140625" style="3"/>
+    <col min="2" max="2" width="22.140625" style="3" customWidth="1"/>
+    <col min="3" max="3" width="28.28515625" style="3" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="36.140625" style="3" customWidth="1"/>
+    <col min="5" max="5" width="16.42578125" style="3" customWidth="1"/>
+    <col min="6" max="6" width="16.7109375" style="5" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="16" style="5" customWidth="1"/>
+    <col min="8" max="8" width="30.7109375" style="3" customWidth="1"/>
+    <col min="9" max="9" width="20.85546875" style="3" customWidth="1"/>
+    <col min="10" max="10" width="32.7109375" style="3" customWidth="1"/>
+    <col min="11" max="16384" width="9.140625" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
+    <row r="1" spans="1:10" s="1" customFormat="1" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="D1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="E1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="F1" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="H1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+      <c r="I1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" t="s">
+      <c r="J1" s="1" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
+    <row r="2" spans="1:10" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="3">
+        <v>1</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="D2" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="B2" t="s">
-        <v>5</v>
-      </c>
-      <c r="C2" t="s">
+      <c r="E2" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="F2" s="5">
+        <v>9780141033570</v>
+      </c>
+      <c r="G2" s="6">
+        <v>12.66</v>
+      </c>
+      <c r="H2" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="D2" s="2">
+      <c r="I2" s="7">
         <v>41187</v>
       </c>
-      <c r="E2" t="s">
+      <c r="J2" s="3" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="3" spans="1:5" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
+    <row r="3" spans="1:10" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="3">
+        <v>2</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="D3" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="B3" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3" t="s">
+      <c r="E3" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="F3" s="5">
+        <v>9780099590088</v>
+      </c>
+      <c r="G3" s="6">
+        <v>13.94</v>
+      </c>
+      <c r="H3" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="D3" s="1">
+      <c r="I3" s="7">
         <v>42628</v>
       </c>
-      <c r="E3" t="s">
+      <c r="J3" s="3" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="4" spans="1:5" ht="27" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
+    <row r="4" spans="1:10" ht="27" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="3">
+        <v>3</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="D4" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="B4" t="s">
-        <v>5</v>
-      </c>
-      <c r="C4" t="s">
+      <c r="E4" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="F4" s="5">
+        <v>9781439199190</v>
+      </c>
+      <c r="G4" s="6">
+        <v>6.66</v>
+      </c>
+      <c r="H4" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="D4" s="1">
+      <c r="I4" s="7">
         <v>40680</v>
       </c>
-      <c r="E4" t="s">
+      <c r="J4" s="3" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="5" spans="1:5" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
+    <row r="5" spans="1:10" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="3">
+        <v>4</v>
+      </c>
+      <c r="B5" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="D5" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="B5" t="s">
-        <v>5</v>
-      </c>
-      <c r="C5" t="s">
+      <c r="E5" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="F5" s="5">
+        <v>9780761169086</v>
+      </c>
+      <c r="G5" s="6">
+        <v>32.590000000000003</v>
+      </c>
+      <c r="H5" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="D5" s="1" t="s">
+      <c r="I5" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="E5" t="s">
+      <c r="J5" s="3" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="6" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
+    <row r="6" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="3">
+        <v>5</v>
+      </c>
+      <c r="B6" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="D6" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="B6" t="s">
-        <v>5</v>
-      </c>
-      <c r="C6" t="s">
+      <c r="E6" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="F6" s="5">
+        <v>9780349140100</v>
+      </c>
+      <c r="G6" s="6">
+        <v>5.58</v>
+      </c>
+      <c r="H6" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="D6" s="1">
+      <c r="I6" s="7">
         <v>42549</v>
       </c>
-      <c r="E6" t="s">
+      <c r="J6" s="3" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="7" spans="1:5" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
+    <row r="7" spans="1:10" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="3">
+        <v>6</v>
+      </c>
+      <c r="B7" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="D7" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="B7" t="s">
-        <v>5</v>
-      </c>
-      <c r="C7" t="s">
+      <c r="E7" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="F7" s="5">
+        <v>9781782435754</v>
+      </c>
+      <c r="G7" s="6">
+        <v>6.46</v>
+      </c>
+      <c r="H7" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="D7" s="1">
+      <c r="I7" s="7">
         <v>42641</v>
       </c>
-      <c r="E7" t="s">
+      <c r="J7" s="3" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="8" spans="1:5" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
+    <row r="8" spans="1:10" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="3">
+        <v>7</v>
+      </c>
+      <c r="B8" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="C8" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="D8" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="B8" t="s">
-        <v>5</v>
-      </c>
-      <c r="C8" t="s">
+      <c r="E8" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="F8" s="5">
+        <v>9780807014295</v>
+      </c>
+      <c r="G8" s="6">
+        <v>7.69</v>
+      </c>
+      <c r="H8" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="D8" s="1">
+      <c r="I8" s="7">
         <v>38882</v>
       </c>
-      <c r="E8" t="s">
+      <c r="J8" s="3" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="9" spans="1:5" ht="27" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
+    <row r="9" spans="1:10" ht="27" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="3">
+        <v>8</v>
+      </c>
+      <c r="B9" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="C9" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="D9" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="E9" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="F9" s="5">
+        <v>9780345514400</v>
+      </c>
+      <c r="G9" s="6">
+        <v>7.23</v>
+      </c>
+      <c r="H9" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="I9" s="9">
+        <v>39924</v>
+      </c>
+      <c r="J9" s="3" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="3">
+        <v>9</v>
+      </c>
+      <c r="B10" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="C10" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="D10" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E10" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="F10" s="5">
+        <v>9780718184391</v>
+      </c>
+      <c r="G10" s="6">
+        <v>7.24</v>
+      </c>
+      <c r="H10" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="I10" s="7">
+        <v>42663</v>
+      </c>
+      <c r="J10" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="B9" t="s">
-        <v>5</v>
-      </c>
-      <c r="C9" t="s">
+    </row>
+    <row r="11" spans="1:10" ht="27" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="3">
+        <v>10</v>
+      </c>
+      <c r="B11" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="C11" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="D11" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E11" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="F11" s="5">
+        <v>9780141029191</v>
+      </c>
+      <c r="G11" s="6">
+        <v>9.69</v>
+      </c>
+      <c r="H11" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="I11" s="7">
+        <v>41334</v>
+      </c>
+      <c r="J11" s="3" t="s">
         <v>25</v>
-      </c>
-      <c r="D9" s="1">
-        <v>42551</v>
-      </c>
-      <c r="E9" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
-        <v>8</v>
-      </c>
-      <c r="B10" t="s">
-        <v>5</v>
-      </c>
-      <c r="C10" t="s">
-        <v>6</v>
-      </c>
-      <c r="D10" s="1">
-        <v>42663</v>
-      </c>
-      <c r="E10" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" ht="27" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
-        <v>8</v>
-      </c>
-      <c r="B11" t="s">
-        <v>5</v>
-      </c>
-      <c r="C11" t="s">
-        <v>6</v>
-      </c>
-      <c r="D11" s="1">
-        <v>41334</v>
-      </c>
-      <c r="E11" t="s">
-        <v>28</v>
       </c>
     </row>
   </sheetData>
